--- a/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
+++ b/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
@@ -51,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>

--- a/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
+++ b/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
+++ b/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$88</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$108</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3120" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3810" uniqueCount="558">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -968,6 +968,153 @@
   </si>
   <si>
     <t>AllergyIntolerance.patient.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient</t>
+  </si>
+  <si>
+    <t>unidentifiedPatient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://www.saude.gov.br/fhir/r4/StructureDefinition/BRIndividuoNaoIdentificado-1.0}
+</t>
+  </si>
+  <si>
+    <t>Dados do Indivíduo Não Identificado</t>
+  </si>
+  <si>
+    <t>Informações demográficas básicas e justificativa dos indivíduos que não podem ser identificados por razões clínicas ou sociais, conforme legislação brasileira, com finalidade estatística.</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension.extension</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:gender</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:gender.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension.extension.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:gender.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension.extension.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:gender.url</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:gender.value[x]</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:birthYear</t>
+  </si>
+  <si>
+    <t>birthYear</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:birthYear.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:birthYear.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:birthYear.url</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:birthYear.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:reason</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:reason.id</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:reason.extension</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:reason.url</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.extension:reason.value[x]</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.url</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension.url</t>
+  </si>
+  <si>
+    <t>http://www.saude.gov.br/fhir/r4/StructureDefinition/BRIndividuoNaoIdentificado-1.0</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension:unidentifiedPatient.value[x]</t>
+  </si>
+  <si>
+    <t>AllergyIntolerance.patient.extension.value[x]</t>
+  </si>
+  <si>
+    <t>base64Binary
+booleancanonicalcodedatedateTimedecimalidinstantintegermarkdownoidpositiveIntstringtimeunsignedInturiurluuidAddressAgeAnnotationAttachmentCodeableConceptCodingContactPointCountDistanceDurationHumanNameIdentifierMoneyPeriodQuantityRangeRatioReferenceSampledDataSignatureTimingContactDetailContributorDataRequirementExpressionParameterDefinitionRelatedArtifactTriggerDefinitionUsageContextDosageMeta</t>
   </si>
   <si>
     <t>AllergyIntolerance.patient.reference</t>
@@ -1934,7 +2081,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM88"/>
+  <dimension ref="A1:AM108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1943,9 +2090,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.9375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="79.02734375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="56.9375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="18.34765625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -1953,7 +2100,7 @@
     <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="74.12890625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -6559,7 +6706,7 @@
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6581,14 +6728,12 @@
         <v>131</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>132</v>
+        <v>302</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6652,7 +6797,7 @@
         <v>136</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>79</v>
@@ -6663,12 +6808,14 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="D43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6677,29 +6824,27 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>169</v>
+        <v>306</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
@@ -6748,22 +6893,22 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>306</v>
+        <v>179</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>307</v>
+        <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>79</v>
@@ -6774,10 +6919,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6788,7 +6933,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6797,20 +6942,18 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6835,13 +6978,13 @@
         <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>313</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>314</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>79</v>
@@ -6859,7 +7002,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>315</v>
+        <v>172</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -6871,10 +7014,10 @@
         <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6885,10 +7028,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6896,10 +7039,10 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>313</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6908,20 +7051,18 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -6958,34 +7099,34 @@
         <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>320</v>
+        <v>179</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>321</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>79</v>
@@ -6996,24 +7137,26 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>79</v>
@@ -7022,13 +7165,13 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>170</v>
+        <v>302</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>171</v>
+        <v>303</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7079,22 +7222,22 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>173</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>79</v>
@@ -7105,21 +7248,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7131,17 +7274,15 @@
         <v>79</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7178,31 +7319,31 @@
         <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>173</v>
@@ -7216,46 +7357,44 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>325</v>
+        <v>132</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>326</v>
+        <v>175</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7279,60 +7418,60 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>331</v>
+        <v>179</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>332</v>
+        <v>173</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7340,10 +7479,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
@@ -7352,29 +7491,27 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>152</v>
+        <v>99</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>79</v>
@@ -7392,13 +7529,13 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>339</v>
+        <v>79</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>79</v>
@@ -7416,10 +7553,10 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>86</v>
@@ -7428,24 +7565,24 @@
         <v>79</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>341</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7465,23 +7602,19 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>346</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -7493,7 +7626,7 @@
         <v>79</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="U50" t="s" s="2">
         <v>79</v>
@@ -7529,7 +7662,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
@@ -7544,23 +7677,25 @@
         <v>97</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>349</v>
+        <v>128</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>350</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>351</v>
+        <v>331</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>332</v>
+      </c>
       <c r="D51" t="s" s="2">
         <v>79</v>
       </c>
@@ -7572,26 +7707,24 @@
         <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7604,7 +7737,7 @@
         <v>79</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="U51" t="s" s="2">
         <v>79</v>
@@ -7640,36 +7773,36 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>356</v>
+        <v>179</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7680,7 +7813,7 @@
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
@@ -7689,16 +7822,16 @@
         <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>360</v>
+        <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>361</v>
+        <v>170</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>362</v>
+        <v>171</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7749,7 +7882,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>363</v>
+        <v>172</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -7761,35 +7894,35 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>364</v>
+        <v>173</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>365</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>366</v>
+        <v>334</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>366</v>
+        <v>319</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7798,19 +7931,19 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>368</v>
+        <v>132</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>369</v>
+        <v>175</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>370</v>
+        <v>134</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7848,48 +7981,48 @@
         <v>79</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AD53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>371</v>
+        <v>179</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>372</v>
+        <v>173</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>374</v>
+        <v>335</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7897,10 +8030,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -7909,19 +8042,19 @@
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7929,7 +8062,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>79</v>
@@ -7971,10 +8104,10 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>86</v>
@@ -7983,7 +8116,7 @@
         <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>128</v>
@@ -7997,10 +8130,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>379</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>379</v>
+        <v>327</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8008,10 +8141,10 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8023,13 +8156,13 @@
         <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>380</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8080,7 +8213,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>379</v>
+        <v>330</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8095,10 +8228,10 @@
         <v>97</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>383</v>
+        <v>128</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>384</v>
+        <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>79</v>
@@ -8106,18 +8239,20 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>385</v>
+        <v>338</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="C56" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="D56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>86</v>
@@ -8132,13 +8267,13 @@
         <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>386</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>387</v>
+        <v>302</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>388</v>
+        <v>303</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8189,25 +8324,25 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>385</v>
+        <v>179</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>390</v>
+        <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
@@ -8215,10 +8350,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>391</v>
+        <v>340</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>391</v>
+        <v>317</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8229,7 +8364,7 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8241,13 +8376,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>386</v>
+        <v>169</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>392</v>
+        <v>170</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>393</v>
+        <v>171</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8298,7 +8433,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>391</v>
+        <v>172</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8310,35 +8445,35 @@
         <v>79</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>394</v>
+        <v>173</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>395</v>
+        <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>396</v>
+        <v>79</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>397</v>
+        <v>319</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>398</v>
+        <v>130</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8350,15 +8485,17 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>399</v>
+        <v>131</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>400</v>
+        <v>132</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8395,37 +8532,37 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>397</v>
+        <v>179</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>402</v>
+        <v>173</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
@@ -8433,21 +8570,21 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>342</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>404</v>
+        <v>321</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>405</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8456,19 +8593,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>406</v>
+        <v>99</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>407</v>
+        <v>322</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>408</v>
+        <v>323</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>409</v>
+        <v>324</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8476,7 +8613,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>79</v>
+        <v>339</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>79</v>
@@ -8518,10 +8655,10 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>86</v>
@@ -8530,24 +8667,24 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>410</v>
+        <v>128</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>412</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>413</v>
+        <v>343</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>413</v>
+        <v>327</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8555,10 +8692,10 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -8570,17 +8707,15 @@
         <v>79</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>386</v>
+        <v>152</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>414</v>
+        <v>328</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -8629,7 +8764,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>413</v>
+        <v>330</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -8644,7 +8779,7 @@
         <v>97</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>417</v>
+        <v>128</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
@@ -8655,10 +8790,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>418</v>
+        <v>344</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>418</v>
+        <v>345</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8666,13 +8801,13 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>79</v>
@@ -8681,16 +8816,16 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>419</v>
+        <v>99</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>420</v>
+        <v>322</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>421</v>
+        <v>323</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>422</v>
+        <v>324</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -8698,7 +8833,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>79</v>
@@ -8740,22 +8875,22 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>418</v>
+        <v>325</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>423</v>
+        <v>128</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
@@ -8766,10 +8901,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>424</v>
+        <v>347</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>424</v>
+        <v>348</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8780,7 +8915,7 @@
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>79</v>
@@ -8792,13 +8927,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>169</v>
+        <v>349</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>170</v>
+        <v>328</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8849,7 +8984,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>172</v>
+        <v>330</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -8861,10 +8996,10 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
@@ -8875,21 +9010,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>425</v>
+        <v>350</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -8898,19 +9033,19 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>132</v>
+        <v>351</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>175</v>
+        <v>352</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>134</v>
+        <v>353</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -8948,34 +9083,34 @@
         <v>79</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>179</v>
+        <v>354</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
@@ -8986,10 +9121,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>426</v>
+        <v>356</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9012,16 +9147,16 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>427</v>
+        <v>99</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>428</v>
+        <v>357</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>429</v>
+        <v>358</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>430</v>
+        <v>359</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9047,13 +9182,13 @@
         <v>79</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>79</v>
@@ -9071,7 +9206,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9086,21 +9221,21 @@
         <v>97</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>432</v>
+        <v>128</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>433</v>
+        <v>364</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9108,10 +9243,10 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9123,15 +9258,17 @@
         <v>78</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>386</v>
+        <v>143</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="N65" s="2"/>
+        <v>366</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>367</v>
+      </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9180,7 +9317,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>436</v>
+        <v>368</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
@@ -9195,21 +9332,21 @@
         <v>97</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>437</v>
+        <v>369</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>438</v>
+        <v>370</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9217,7 +9354,7 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>86</v>
@@ -9229,16 +9366,16 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>439</v>
+        <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>440</v>
+        <v>170</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>441</v>
+        <v>171</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9289,10 +9426,10 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>442</v>
+        <v>172</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>86</v>
@@ -9301,38 +9438,38 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>443</v>
+        <v>173</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>128</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>79</v>
@@ -9341,15 +9478,17 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>445</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>446</v>
+        <v>132</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -9386,19 +9525,19 @@
         <v>79</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>444</v>
+        <v>179</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>76</v>
@@ -9410,10 +9549,10 @@
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>448</v>
+        <v>173</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>79</v>
@@ -9424,10 +9563,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>449</v>
+        <v>372</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>449</v>
+        <v>372</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9438,28 +9577,32 @@
         <v>76</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>170</v>
+        <v>373</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>374</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>376</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9483,13 +9626,13 @@
         <v>79</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>79</v>
+        <v>377</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>79</v>
+        <v>378</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>79</v>
@@ -9507,7 +9650,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>172</v>
+        <v>379</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>76</v>
@@ -9519,35 +9662,35 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>173</v>
+        <v>380</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>450</v>
+        <v>381</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>450</v>
+        <v>381</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9556,21 +9699,23 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>132</v>
+        <v>382</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>175</v>
+        <v>383</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>384</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>79</v>
       </c>
@@ -9594,13 +9739,13 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -9618,71 +9763,71 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>179</v>
+        <v>388</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>173</v>
+        <v>380</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>453</v>
+        <v>391</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>454</v>
+        <v>392</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>134</v>
+        <v>393</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>140</v>
+        <v>394</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>79</v>
@@ -9695,7 +9840,7 @@
         <v>79</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>79</v>
+        <v>395</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>79</v>
@@ -9731,36 +9876,36 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>455</v>
+        <v>396</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>128</v>
+        <v>397</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9768,10 +9913,10 @@
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -9780,19 +9925,19 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9806,7 +9951,7 @@
         <v>79</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>79</v>
@@ -9818,13 +9963,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -9842,7 +9987,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>456</v>
+        <v>404</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>76</v>
@@ -9857,32 +10002,32 @@
         <v>97</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>463</v>
+        <v>405</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>406</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>464</v>
+        <v>407</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>465</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
@@ -9891,20 +10036,18 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>152</v>
+        <v>408</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>466</v>
+        <v>409</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>468</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -9929,13 +10072,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -9953,13 +10096,13 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>464</v>
+        <v>411</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
@@ -9968,21 +10111,21 @@
         <v>97</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>244</v>
+        <v>412</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>471</v>
+        <v>413</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>472</v>
+        <v>414</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9993,7 +10136,7 @@
         <v>76</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10002,18 +10145,20 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>169</v>
+        <v>415</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>170</v>
+        <v>416</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>417</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>418</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10062,7 +10207,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>172</v>
+        <v>419</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>76</v>
@@ -10074,35 +10219,35 @@
         <v>79</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>173</v>
+        <v>420</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>473</v>
+        <v>422</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10111,19 +10256,19 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>132</v>
+        <v>423</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>175</v>
+        <v>424</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10161,34 +10306,34 @@
         <v>79</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>179</v>
+        <v>426</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
@@ -10199,10 +10344,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>474</v>
+        <v>427</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10213,7 +10358,7 @@
         <v>76</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10222,23 +10367,19 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>181</v>
+        <v>428</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>182</v>
+        <v>429</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>185</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
       </c>
@@ -10286,13 +10427,13 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>186</v>
+        <v>427</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
@@ -10301,21 +10442,21 @@
         <v>97</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>187</v>
+        <v>431</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>79</v>
+        <v>432</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>188</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10329,7 +10470,7 @@
         <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>79</v>
@@ -10338,13 +10479,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>169</v>
+        <v>434</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>170</v>
+        <v>435</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>171</v>
+        <v>436</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10395,7 +10536,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>172</v>
+        <v>433</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>76</v>
@@ -10407,13 +10548,13 @@
         <v>79</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>173</v>
+        <v>437</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
@@ -10421,21 +10562,21 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -10447,17 +10588,15 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>131</v>
+        <v>434</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>132</v>
+        <v>440</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -10494,59 +10633,59 @@
         <v>79</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="AC77" t="s" s="2">
-        <v>177</v>
+        <v>79</v>
       </c>
       <c r="AD77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>179</v>
+        <v>439</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>136</v>
+        <v>97</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>173</v>
+        <v>442</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>79</v>
+        <v>443</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>79</v>
+        <v>444</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>477</v>
+        <v>445</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>79</v>
+        <v>446</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -10555,23 +10694,19 @@
         <v>79</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>99</v>
+        <v>447</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>192</v>
+        <v>448</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="O78" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>79</v>
       </c>
@@ -10619,7 +10754,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>196</v>
+        <v>445</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>76</v>
@@ -10634,32 +10769,32 @@
         <v>97</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>197</v>
+        <v>450</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>79</v>
+        <v>451</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>198</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>478</v>
+        <v>452</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -10671,16 +10806,16 @@
         <v>78</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>169</v>
+        <v>454</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>200</v>
+        <v>455</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>201</v>
+        <v>456</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>202</v>
+        <v>457</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -10730,7 +10865,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>203</v>
+        <v>452</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>76</v>
@@ -10745,21 +10880,21 @@
         <v>97</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>204</v>
+        <v>458</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>205</v>
+        <v>460</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>479</v>
+        <v>461</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10767,10 +10902,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -10779,21 +10914,21 @@
         <v>79</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>105</v>
+        <v>434</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>207</v>
+        <v>462</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -10841,7 +10976,7 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>210</v>
+        <v>461</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>76</v>
@@ -10856,21 +10991,21 @@
         <v>97</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>211</v>
+        <v>465</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>212</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10881,30 +11016,30 @@
         <v>76</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>169</v>
+        <v>467</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>214</v>
+        <v>468</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
       </c>
@@ -10952,13 +11087,13 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>217</v>
+        <v>466</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
@@ -10967,21 +11102,21 @@
         <v>97</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>218</v>
+        <v>471</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10992,7 +11127,7 @@
         <v>76</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11001,23 +11136,19 @@
         <v>79</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>221</v>
+        <v>169</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>222</v>
+        <v>170</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="O82" t="s" s="2">
-        <v>225</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
       </c>
@@ -11065,7 +11196,7 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>226</v>
+        <v>172</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>76</v>
@@ -11077,35 +11208,35 @@
         <v>79</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>79</v>
@@ -11114,23 +11245,21 @@
         <v>79</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>230</v>
+        <v>132</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O83" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>79</v>
       </c>
@@ -11166,52 +11295,52 @@
         <v>79</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>79</v>
+        <v>178</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>234</v>
+        <v>179</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>235</v>
+        <v>173</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
@@ -11227,19 +11356,19 @@
         <v>79</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>169</v>
+        <v>475</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11289,7 +11418,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>76</v>
@@ -11304,21 +11433,21 @@
         <v>97</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11338,16 +11467,16 @@
         <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>386</v>
+        <v>434</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11398,7 +11527,7 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>76</v>
@@ -11413,21 +11542,21 @@
         <v>97</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>389</v>
+        <v>485</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>492</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11435,10 +11564,10 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>79</v>
@@ -11447,20 +11576,18 @@
         <v>79</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>105</v>
+        <v>487</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>495</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>496</v>
-      </c>
+        <v>489</v>
+      </c>
+      <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>79</v>
@@ -11485,13 +11612,13 @@
         <v>79</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>497</v>
+        <v>79</v>
       </c>
       <c r="Z86" t="s" s="2">
-        <v>498</v>
+        <v>79</v>
       </c>
       <c r="AA86" t="s" s="2">
         <v>79</v>
@@ -11509,10 +11636,10 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>86</v>
@@ -11524,21 +11651,21 @@
         <v>97</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>262</v>
+        <v>491</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11549,10 +11676,10 @@
         <v>76</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>79</v>
@@ -11561,17 +11688,15 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>152</v>
+        <v>493</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>79</v>
@@ -11596,13 +11721,13 @@
         <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>503</v>
+        <v>79</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>504</v>
+        <v>79</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -11620,13 +11745,13 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
@@ -11635,7 +11760,7 @@
         <v>97</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>79</v>
@@ -11646,10 +11771,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11660,7 +11785,7 @@
         <v>76</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
@@ -11672,17 +11797,15 @@
         <v>79</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>419</v>
+        <v>169</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>507</v>
+        <v>170</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>508</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>509</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>79</v>
@@ -11731,32 +11854,2256 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AG88" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH88" t="s" s="2">
+      <c r="N91" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH92" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="AI88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AK88" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM88" t="s" s="2">
+      <c r="AK92" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="L95" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="P95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="O98" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="P98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="P100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N101" s="2"/>
+      <c r="O101" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="P102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O103" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="N106" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="108" hidden="true">
+      <c r="A108" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="N108" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM108" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM88">
+  <autoFilter ref="A1:AM108">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11766,7 +14113,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI87">
+  <conditionalFormatting sqref="A2:AI107">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
+++ b/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
@@ -75,7 +75,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
+++ b/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
@@ -2090,15 +2090,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="79.02734375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="56.9375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="18.34765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="75.68359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="54.69921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="17.4921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2109,25 +2109,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="120.87890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="83.5703125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.51953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="116.19140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="79.3515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.9765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="43.93359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="32.4453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="42.12109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -7042,7 +7042,7 @@
         <v>313</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
+++ b/docs/StructureDefinition-BRAlergiaReacaoAdversa-1.0.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -2090,15 +2090,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="75.68359375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="54.69921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.4921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="72.171875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.6796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="35.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2109,25 +2109,25 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="116.19140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.3515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.9765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.54296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="110.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.66796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="36.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.4453125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="42.12109375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="40.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6824,7 +6824,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
